--- a/Assets/Resources/DataSet/DialogueDB.xlsx
+++ b/Assets/Resources/DataSet/DialogueDB.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86714F9-489B-4E8F-9E3C-FE84A65E1D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="59">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,88 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이름_002</t>
-  </si>
-  <si>
-    <t>이름_003</t>
-  </si>
-  <si>
-    <t>이름_004</t>
-  </si>
-  <si>
-    <t>이름_005</t>
-  </si>
-  <si>
-    <t>이름_006</t>
-  </si>
-  <si>
-    <t>이름_007</t>
-  </si>
-  <si>
-    <t>이름_008</t>
-  </si>
-  <si>
-    <t>이름_009</t>
-  </si>
-  <si>
-    <t>이름_010</t>
-  </si>
-  <si>
-    <t>이름_011</t>
-  </si>
-  <si>
-    <t>이름_012</t>
-  </si>
-  <si>
-    <t>이름_013</t>
-  </si>
-  <si>
-    <t>이름_014</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 002</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 003</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 004</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 005</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 006</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 007</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 008</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 009</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 010</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 011</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 012</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 013</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 014</t>
-  </si>
-  <si>
     <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,13 +74,180 @@
   </si>
   <si>
     <t>Character/00002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 섬은 대체 뭐지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네가 뭔데 나한테 명령질이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하.. 그래 알겠어 하면 될 거 아니야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장 저희 정말로 괜찮은거 맞겠죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자네는 이럴거면 여기 뭐하러 온건가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼리오스, 너도 다이네랑 같이 주변 탐사를 해주게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알겠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 몰라 그걸 어떻게 알아..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이봐 다이네 나는 국왕에게 부탁받아 기사단을 창설한것인데, 나의 말을 거역하는것은 곧 국왕에 말을 거역하는 거일세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">네? 저의 귀여운 아이들을 홍보하러왔죠 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자네 그렇게 행동하다가 홍보는 커녕 고향으로 돌아가지도 못할걸세, 자네는 내 옆에 붙어있어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 네네~!(지가 뭔데 명령질이지?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐라고? 알겠다 지금 당장 출발하지 다들 훈련때처럼만 행동하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장!! 지금 칼리오스가 습격을 당했다고 보고가 들어왔습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앨리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다들 일단 진정하고, 먼저 이 섬에 대해서 조사를 해봐야 할 필요가 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티에리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이네, 너가 주변 조사를 좀 해야겠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라토나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼리오스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장 아까전에 헬버드들은 저희가 이전에 봤었던 녀석들보다 약했습니다. 이 상태면 금방 집으로 갈 수 있겠는데요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00002</t>
+  </si>
+  <si>
+    <t>Character/00003</t>
+  </si>
+  <si>
+    <t>Character/00004</t>
+  </si>
+  <si>
+    <t>Character/00005</t>
+  </si>
+  <si>
+    <t>Character/00006</t>
+  </si>
+  <si>
+    <t>Character/00007</t>
+  </si>
+  <si>
+    <t>Character/00008</t>
+  </si>
+  <si>
+    <t>Character/00009</t>
+  </si>
+  <si>
+    <t>Character/00010</t>
+  </si>
+  <si>
+    <t>Character/00011</t>
+  </si>
+  <si>
+    <t>Character/00012</t>
+  </si>
+  <si>
+    <t>Character/00013</t>
+  </si>
+  <si>
+    <t>Character/00014</t>
+  </si>
+  <si>
+    <t>그렇다고 방심은 하면 안될세 아직 섬에 도입부도 안들어갔으니 더 강한 녀석들이 나올 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">상대가 얼마나 강하든 싸우고 죽인다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼리오스 자네는 어떻게 해서 이 기사단에 들어왔는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동생을 찾으러 왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 동생을 찾으러 왔구만 (지 동생을 왜 여기서 찾지?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앨리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼리오스가 동생을 찾을 수 있도록 기도드리죠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고맙다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬슬 깊숙히 들어왔는데 아까 싸운뒤로 아무 생명체도 안보입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠.. 뭔가 이상하군 주변이 너무 조용해 이 섬에 뭔가 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,18 +577,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="57.375" customWidth="1"/>
+    <col min="4" max="4" width="101.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="25.125" customWidth="1"/>
     <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
@@ -529,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -538,10 +622,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -552,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -573,7 +657,7 @@
         <v>-100</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -584,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -605,7 +689,7 @@
         <v>-100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -616,16 +700,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -637,7 +721,7 @@
         <v>-100</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -648,16 +732,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -669,7 +753,7 @@
         <v>-100</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -680,16 +764,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -701,7 +785,7 @@
         <v>-100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -712,16 +796,16 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -733,7 +817,7 @@
         <v>-100</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -744,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -765,7 +849,7 @@
         <v>-100</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -776,16 +860,16 @@
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -797,7 +881,7 @@
         <v>-100</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -808,16 +892,16 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -829,7 +913,7 @@
         <v>-100</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -840,16 +924,16 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -861,7 +945,7 @@
         <v>-100</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -872,16 +956,16 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -893,7 +977,7 @@
         <v>-100</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -904,16 +988,16 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -925,7 +1009,7 @@
         <v>-100</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -936,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -957,7 +1041,7 @@
         <v>-100</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -968,113 +1052,1188 @@
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>14</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-100</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>-100</v>
-      </c>
-      <c r="I15" s="1">
-        <v>-100</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/DataSet/DialogueDB.xlsx
+++ b/Assets/Resources/DataSet/DialogueDB.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C90868A-BA14-4AD1-9C69-2E457CC6D7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -247,7 +248,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -577,11 +578,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Resources/DataSet/DialogueDB.xlsx
+++ b/Assets/Resources/DataSet/DialogueDB.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C90868A-BA14-4AD1-9C69-2E457CC6D7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="132">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대장 아까전에 헬버드들은 저희가 이전에 봤었던 녀석들보다 약했습니다. 이 상태면 금방 집으로 갈 수 있겠는데요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Character/00002</t>
   </si>
   <si>
@@ -241,14 +236,270 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>흠.. 뭔가 이상하군 주변이 너무 조용해 이 섬에 뭔가 있다.</t>
+    <t>대장 여태까지 만났던 헬버드들은 약했습니다. 이 상태면 금방 집으로 갈 수 있겠는데요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠.. 뭔가 이상하군 이 섬에 뭔가 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그걸 어떻게 아시죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티에리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 감이 알려주고있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장 앞에 헬버드들이 있습니다. 그런데 이상한 개체가 섞여있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐 어떤 개체지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 헬버드들보다 덩치가 훨씬 큽니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00015</t>
+  </si>
+  <si>
+    <t>Character/00016</t>
+  </si>
+  <si>
+    <t>Character/00017</t>
+  </si>
+  <si>
+    <t>Character/00018</t>
+  </si>
+  <si>
+    <t>Character/00019</t>
+  </si>
+  <si>
+    <t>Character/00020</t>
+  </si>
+  <si>
+    <t>Character/00021</t>
+  </si>
+  <si>
+    <t>Character/00022</t>
+  </si>
+  <si>
+    <t>Character/00023</t>
+  </si>
+  <si>
+    <t>Character/00024</t>
+  </si>
+  <si>
+    <t>Character/00025</t>
+  </si>
+  <si>
+    <t>Character/00034</t>
+  </si>
+  <si>
+    <t>Character/00035</t>
+  </si>
+  <si>
+    <t>Character/00036</t>
+  </si>
+  <si>
+    <t>Character/00037</t>
+  </si>
+  <si>
+    <t>Character/00038</t>
+  </si>
+  <si>
+    <t>Character/00039</t>
+  </si>
+  <si>
+    <t>Character/00040</t>
+  </si>
+  <si>
+    <t>Character/00041</t>
+  </si>
+  <si>
+    <t>Character/00042</t>
+  </si>
+  <si>
+    <t>Character/00043</t>
+  </si>
+  <si>
+    <t>Character/00044</t>
+  </si>
+  <si>
+    <t>Character/00045</t>
+  </si>
+  <si>
+    <t>Character/00046</t>
+  </si>
+  <si>
+    <t>Character/00047</t>
+  </si>
+  <si>
+    <t>Character/00048</t>
+  </si>
+  <si>
+    <t>Character/00049</t>
+  </si>
+  <si>
+    <t>Character/00050</t>
+  </si>
+  <si>
+    <t>Character/00051</t>
+  </si>
+  <si>
+    <t>Character/00052</t>
+  </si>
+  <si>
+    <t>Character/00053</t>
+  </si>
+  <si>
+    <t>Character/00054</t>
+  </si>
+  <si>
+    <t>Character/00055</t>
+  </si>
+  <si>
+    <t>Character/00056</t>
+  </si>
+  <si>
+    <t>Character/00057</t>
+  </si>
+  <si>
+    <t>Character/00058</t>
+  </si>
+  <si>
+    <t>Character/00059</t>
+  </si>
+  <si>
+    <t>Character/00060</t>
+  </si>
+  <si>
+    <t>Character/00061</t>
+  </si>
+  <si>
+    <t>Character/00062</t>
+  </si>
+  <si>
+    <t>변이종이더라도 평소처럼만 하면 이길 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라토나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음 보는 광물로 무기 제작이 가능한가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇네요 살면서 이렇게 큰 동굴은 처음 본거 같아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장 슬슬 밤이 되어가고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선 거처부터 마련해야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼리오스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 주변을 수색하고 오겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거처를 만들거나 주변에 쉴 만한 곳을 찾아야한다. 칼리오스 너는 식량을 찾아봐라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알겠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장, 주변에 헬버드들이 몰려오고 있다고 방금 보고가 들어왔습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤이 오기전에 빠르게 해치우고 거처와 식량을 확보해야한다. 엘리스 모든 기사단원에게 전달하도록.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼리오스, 다이네 지금 당장 돌아와, 주변에 헬버드들이 너무 많다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">칼리오스 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젠장 알겠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네, 알겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장, 저 앞에 동굴이 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥 동굴이라고 하기엔 너무 크군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 동굴은 새로운 광물들이 많은거 같구려 무기 만들기 좋겠어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이보게 대장, 새로운 광물들로 새로운 새끼를 만드는 것이 얼마나 좋은지 모르는구려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장, 앞에 새로운 헬버드 개체가 존재하는거 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">헬버드들은 정말 다양한 개체들이 존재하는군 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평소처럼 싸워서 죽인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>껄껄껄 자네 말이 맞지 대장, 평소처럼 우리 방식으로 처리합시다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -578,11 +829,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1182,7 +1433,7 @@
         <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
@@ -1214,7 +1465,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
@@ -1246,10 +1497,10 @@
         <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>8</v>
@@ -1278,10 +1529,10 @@
         <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>8</v>
@@ -1310,10 +1561,10 @@
         <v>34</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>8</v>
@@ -1342,10 +1593,10 @@
         <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>8</v>
@@ -1371,13 +1622,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>8</v>
@@ -1406,10 +1657,10 @@
         <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>8</v>
@@ -1438,10 +1689,10 @@
         <v>29</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>8</v>
@@ -1473,7 +1724,7 @@
         <v>58</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>8</v>
@@ -1498,8 +1749,14 @@
       <c r="B29" s="1">
         <v>0</v>
       </c>
+      <c r="C29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>8</v>
@@ -1524,8 +1781,14 @@
       <c r="B30" s="1">
         <v>0</v>
       </c>
+      <c r="C30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>8</v>
@@ -1550,8 +1813,14 @@
       <c r="B31" s="1">
         <v>0</v>
       </c>
+      <c r="C31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>8</v>
@@ -1576,8 +1845,14 @@
       <c r="B32" s="1">
         <v>0</v>
       </c>
+      <c r="C32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>8</v>
@@ -1602,8 +1877,14 @@
       <c r="B33" s="1">
         <v>0</v>
       </c>
+      <c r="C33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>8</v>
@@ -1625,313 +1906,1556 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>33</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>35</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
+      <c r="I54" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1</v>
+      </c>
+      <c r="I55" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1</v>
+      </c>
+      <c r="I56" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1</v>
+      </c>
+      <c r="I57" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
+      <c r="I60" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1</v>
+      </c>
+      <c r="I62" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1</v>
+      </c>
+      <c r="I64" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>1</v>
+      </c>
+      <c r="I67" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>1</v>
+      </c>
+      <c r="I68" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69" s="1">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1</v>
+      </c>
+      <c r="I69" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70" s="1">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>1</v>
+      </c>
+      <c r="I70" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71" s="1">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72" s="1">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>1</v>
+      </c>
+      <c r="I72" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73" s="1">
+        <v>0</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>1</v>
+      </c>
+      <c r="I73" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74" s="1">
+        <v>0</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1">
+        <v>1</v>
+      </c>
+      <c r="I74" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>1</v>
+      </c>
+      <c r="I75" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76" s="1">
+        <v>0</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>1</v>
+      </c>
+      <c r="I76" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77" s="1">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78" s="1">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1">
+        <v>1</v>
+      </c>
+      <c r="I78" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79" s="1">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>1</v>
+      </c>
+      <c r="I79" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80" s="1">
+        <v>0</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
+        <v>1</v>
+      </c>
+      <c r="I80" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81" s="1">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1">
+        <v>1</v>
+      </c>
+      <c r="I81" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>

--- a/Assets/Resources/DataSet/DialogueDB.xlsx
+++ b/Assets/Resources/DataSet/DialogueDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="248">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -493,6 +493,421 @@
   </si>
   <si>
     <t>껄껄껄 자네 말이 맞지 대장, 평소처럼 우리 방식으로 처리합시다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장 여기 벽면에 뭐라고 적혀있는거 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭔가를 나타낸거 같군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건 상형문자군요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리스, 무슨 뜻인지 알겠나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니요 그림이 훼손되어서 자세히는 모르겠지만 헬버드로 추종되는 것이 5개체가 그려져 있는 거 같아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 대장 여기 그려져있는 헬버드들은 모습들이 너무 다른데요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런거같군 높은 격에 헬버드일 확률이 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강해보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장 일단 안쪽으로 더 들어 갈 겁니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안쪽으로 들어간다. 안쪽으로 들어가면 더 이 섬에 대해서 알 수 있는 정보들이 나올수도 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장 저 끝에 출구가 보입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 동굴 어딘가로 이어져 있었군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건 지형이 완전 바뀌었군요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분명 아까까진 숲이 였는데 여기는 사막인거 같군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 섬 전체가 이상한거같아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬이라고 하기엔 규모가 너무 큰거같군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대륙이라고 봐도 무방한거 같아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생각보다 일이 쉽게 해결되지 않겠군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장, 저희 집은 갈 수 있겠죠? 제 새끼들을 보고싶어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집을 가려면 이 대륙부터 조사를 계속 해야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼리오스, 걱정 말아요 동생은 꼭 찾으실수 있을거에요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기 어딘가에 동생이 존재하긴 한것인가..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00063</t>
+  </si>
+  <si>
+    <t>Character/00064</t>
+  </si>
+  <si>
+    <t>Character/00065</t>
+  </si>
+  <si>
+    <t>Character/00066</t>
+  </si>
+  <si>
+    <t>Character/00067</t>
+  </si>
+  <si>
+    <t>Character/00068</t>
+  </si>
+  <si>
+    <t>Character/00069</t>
+  </si>
+  <si>
+    <t>Character/00070</t>
+  </si>
+  <si>
+    <t>Character/00071</t>
+  </si>
+  <si>
+    <t>Character/00072</t>
+  </si>
+  <si>
+    <t>Character/00073</t>
+  </si>
+  <si>
+    <t>다이네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장 앞에 헬버드들이 있습니다만 역시 모습이 또 다릅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티에리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지형에 따라 종류가 다른가보군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예 근데 전에 봤던 헬버드들보다 더 강한거 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼리오스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동생을 찾을수만 있다면 다 죽인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라토나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞으로 먼 여정이 될 거 같으니 너무 무리하면서 싸우지 마시죠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">엘리스 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사막으로 들어갈수록 헬버드들이 점점 강해지고 있는거 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇긴 하다만 우리도 점차 적응을 잘해가고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예 맞죠 대장 저조차도 지금은 어엿한 1인분은 하는 실력은 되었죠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 라토나 자네는 지금처럼만 잘해주게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">라토나 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걱정마십쇼 대장 제 새끼들만 있다면 저는 지지않습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00074</t>
+  </si>
+  <si>
+    <t>Character/00075</t>
+  </si>
+  <si>
+    <t>대장 이쪽으로 가는게 맞을까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 마법으로 길을 찾으면서 가고 있는데 이쪽길을 가르키고 있어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제로 개체수가 조금씩 많아지고 있군. 길을 틀린것은 아닌거 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00076</t>
+  </si>
+  <si>
+    <t>Character/00077</t>
+  </si>
+  <si>
+    <t>Character/00078</t>
+  </si>
+  <si>
+    <t>Character/00079</t>
+  </si>
+  <si>
+    <t>Character/00080</t>
+  </si>
+  <si>
+    <t>Character/00081</t>
+  </si>
+  <si>
+    <t>Character/00082</t>
+  </si>
+  <si>
+    <t>Character/00083</t>
+  </si>
+  <si>
+    <t>Character/00084</t>
+  </si>
+  <si>
+    <t>Character/00085</t>
+  </si>
+  <si>
+    <t>Character/00086</t>
+  </si>
+  <si>
+    <t>Character/00087</t>
+  </si>
+  <si>
+    <t>나름 많이 온거 같은데 끝이 안보이는군요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이럴줄 알았으면 병력을 더 데려올걸 그랬군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장,저희 집은 갈 수 있겠죠?(제발 집좀 보내줘)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라토나 집 얘기좀 그만하게, 자네가 이럴수록 집은 더 멀어지는 거야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네.. 알겠습니다(이럴거면 오지말걸 내 새끼들 잘있겠지..??)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하여튼 말은 많아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 나한테 시비거는 것인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시비는 아닌데 너무 말이 많다구요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자자, 진정들하게 아직 적들이 많이 남아있어. 다이네 자네가 참게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">네 알겠습니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00088</t>
+  </si>
+  <si>
+    <t>Character/00089</t>
+  </si>
+  <si>
+    <t>Character/00090</t>
+  </si>
+  <si>
+    <t>Character/00091</t>
+  </si>
+  <si>
+    <t>Character/00092</t>
+  </si>
+  <si>
+    <t>Character/00093</t>
+  </si>
+  <si>
+    <t>Character/00094</t>
+  </si>
+  <si>
+    <t>Character/00095</t>
+  </si>
+  <si>
+    <t>Character/00096</t>
+  </si>
+  <si>
+    <t>Character/00097</t>
+  </si>
+  <si>
+    <t>(#%@%^@)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00098</t>
+  </si>
+  <si>
+    <t>Character/00099</t>
+  </si>
+  <si>
+    <t>Character/00100</t>
+  </si>
+  <si>
+    <t>Character/00101</t>
+  </si>
+  <si>
+    <t>Character/00102</t>
+  </si>
+  <si>
+    <t>Character/00103</t>
+  </si>
+  <si>
+    <t>Character/00104</t>
+  </si>
+  <si>
+    <t>Character/00105</t>
+  </si>
+  <si>
+    <t>Character/00106</t>
+  </si>
+  <si>
+    <t>Character/00107</t>
+  </si>
+  <si>
+    <t>Character/00108</t>
+  </si>
+  <si>
+    <t>Character/00109</t>
+  </si>
+  <si>
+    <t>Character/00110</t>
+  </si>
+  <si>
+    <t>Character/00111</t>
+  </si>
+  <si>
+    <t>앞에 모래바람이 심하게 붑니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리스 저기 밖에 길이 없는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예 제 마법이 저쪽으로 길을 가르키고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쩔 수 없군. 다들 만만의 준비들 하세. 우리는 저길 들어간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조심해야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특히 라토나 자네는 더더욱 조심하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라토네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 대장 제가 알아서~하겠습니다.(저번부터 마음에 안드네)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기 헬버드들은 아까보다 더 강합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴장을 놓지말아야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그나마 엘리스 마법으로 영향을 덜 받는구만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조금만 더 가면 벗어날수 있을거 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 기세를 타서 빠르게 모래바람에서 벗어난다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -832,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2703,9 +3118,11 @@
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D59" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E59" s="1" t="s">
         <v>84</v>
       </c>
@@ -2733,9 +3150,11 @@
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="E60" s="1" t="s">
         <v>85</v>
       </c>
@@ -2763,9 +3182,11 @@
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="E61" s="1" t="s">
         <v>86</v>
       </c>
@@ -2793,9 +3214,11 @@
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D62" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="E62" s="1" t="s">
         <v>87</v>
       </c>
@@ -2823,9 +3246,11 @@
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D63" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="E63" s="1" t="s">
         <v>88</v>
       </c>
@@ -2853,9 +3278,11 @@
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D64" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="E64" s="1" t="s">
         <v>89</v>
       </c>
@@ -2883,9 +3310,11 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D65" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="E65" s="1" t="s">
         <v>90</v>
       </c>
@@ -2913,9 +3342,11 @@
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D66" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="E66" s="1" t="s">
         <v>91</v>
       </c>
@@ -2943,9 +3374,11 @@
         <v>0</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D67" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="E67" s="1" t="s">
         <v>92</v>
       </c>
@@ -2973,9 +3406,11 @@
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D68" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="E68" s="1" t="s">
         <v>93</v>
       </c>
@@ -3003,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
@@ -3033,9 +3468,11 @@
         <v>0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D70" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="E70" s="1" t="s">
         <v>95</v>
       </c>
@@ -3063,9 +3500,11 @@
         <v>0</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D71" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="E71" s="1" t="s">
         <v>96</v>
       </c>
@@ -3093,9 +3532,11 @@
         <v>0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D72" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E72" s="1" t="s">
         <v>97</v>
       </c>
@@ -3125,7 +3566,9 @@
       <c r="C73" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="E73" s="1" t="s">
         <v>98</v>
       </c>
@@ -3155,7 +3598,9 @@
       <c r="C74" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E74" s="1" t="s">
         <v>99</v>
       </c>
@@ -3183,9 +3628,11 @@
         <v>0</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D75" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="E75" s="1" t="s">
         <v>100</v>
       </c>
@@ -3213,9 +3660,11 @@
         <v>0</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D76" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="E76" s="1" t="s">
         <v>101</v>
       </c>
@@ -3243,9 +3692,11 @@
         <v>0</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D77" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="E77" s="1" t="s">
         <v>102</v>
       </c>
@@ -3273,9 +3724,11 @@
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D78" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="E78" s="1" t="s">
         <v>103</v>
       </c>
@@ -3303,9 +3756,11 @@
         <v>0</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D79" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="E79" s="1" t="s">
         <v>104</v>
       </c>
@@ -3333,9 +3788,11 @@
         <v>0</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D80" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="E80" s="1" t="s">
         <v>105</v>
       </c>
@@ -3365,7 +3822,9 @@
       <c r="C81" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="E81" s="1" t="s">
         <v>106</v>
       </c>
@@ -3389,313 +3848,1573 @@
       <c r="A82" s="1">
         <v>80</v>
       </c>
+      <c r="B82" s="1">
+        <v>0</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1">
+        <v>1</v>
+      </c>
+      <c r="I82" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
+      <c r="B83" s="1">
+        <v>0</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1">
+        <v>1</v>
+      </c>
+      <c r="I83" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
+      <c r="B84" s="1">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="1">
+        <v>1</v>
+      </c>
+      <c r="I84" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
+      <c r="B85" s="1">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1">
+        <v>1</v>
+      </c>
+      <c r="I85" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
+      <c r="B86" s="1">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1">
+        <v>1</v>
+      </c>
+      <c r="I86" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
+      <c r="B87" s="1">
+        <v>0</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1">
+        <v>1</v>
+      </c>
+      <c r="I87" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
+      <c r="B88" s="1">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1">
+        <v>1</v>
+      </c>
+      <c r="I88" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
+      <c r="B89" s="1">
+        <v>0</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>1</v>
+      </c>
+      <c r="I89" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
+      <c r="B90" s="1">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1">
+        <v>1</v>
+      </c>
+      <c r="I90" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
+      <c r="B91" s="1">
+        <v>0</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1">
+        <v>1</v>
+      </c>
+      <c r="I91" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
+      <c r="B92" s="1">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>1</v>
+      </c>
+      <c r="I92" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
+      <c r="B93" s="1">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>1</v>
+      </c>
+      <c r="I93" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
+      <c r="B94" s="1">
+        <v>0</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>1</v>
+      </c>
+      <c r="I94" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
+      <c r="B95" s="1">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>1</v>
+      </c>
+      <c r="I95" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96" s="1">
+        <v>0</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>1</v>
+      </c>
+      <c r="I96" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97" s="1">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>1</v>
+      </c>
+      <c r="I97" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98" s="1">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>1</v>
+      </c>
+      <c r="I98" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B99" s="1">
+        <v>0</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>1</v>
+      </c>
+      <c r="I99" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B100" s="1">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1">
+        <v>1</v>
+      </c>
+      <c r="I100" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B101" s="1">
+        <v>0</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1">
+        <v>1</v>
+      </c>
+      <c r="I101" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B102" s="1">
+        <v>0</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
+      <c r="H102" s="1">
+        <v>1</v>
+      </c>
+      <c r="I102" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B103" s="1">
+        <v>0</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1">
+        <v>1</v>
+      </c>
+      <c r="I103" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B104" s="1">
+        <v>0</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1">
+        <v>1</v>
+      </c>
+      <c r="I104" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B105" s="1">
+        <v>0</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+      <c r="H105" s="1">
+        <v>1</v>
+      </c>
+      <c r="I105" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B106" s="1">
+        <v>0</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0</v>
+      </c>
+      <c r="H106" s="1">
+        <v>1</v>
+      </c>
+      <c r="I106" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B107" s="1">
+        <v>0</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+      <c r="H107" s="1">
+        <v>1</v>
+      </c>
+      <c r="I107" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B108" s="1">
+        <v>0</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+      <c r="H108" s="1">
+        <v>1</v>
+      </c>
+      <c r="I108" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B109" s="1">
+        <v>0</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0</v>
+      </c>
+      <c r="H109" s="1">
+        <v>1</v>
+      </c>
+      <c r="I109" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B110" s="1">
+        <v>0</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+      <c r="H110" s="1">
+        <v>1</v>
+      </c>
+      <c r="I110" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B111" s="1">
+        <v>0</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0</v>
+      </c>
+      <c r="H111" s="1">
+        <v>1</v>
+      </c>
+      <c r="I111" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B112" s="1">
+        <v>0</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0</v>
+      </c>
+      <c r="H112" s="1">
+        <v>1</v>
+      </c>
+      <c r="I112" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B113" s="1">
+        <v>0</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0</v>
+      </c>
+      <c r="H113" s="1">
+        <v>1</v>
+      </c>
+      <c r="I113" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B114" s="1">
+        <v>0</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0</v>
+      </c>
+      <c r="H114" s="1">
+        <v>1</v>
+      </c>
+      <c r="I114" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B115" s="1">
+        <v>0</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0</v>
+      </c>
+      <c r="H115" s="1">
+        <v>1</v>
+      </c>
+      <c r="I115" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B116" s="1">
+        <v>0</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0</v>
+      </c>
+      <c r="H116" s="1">
+        <v>1</v>
+      </c>
+      <c r="I116" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B117" s="1">
+        <v>0</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0</v>
+      </c>
+      <c r="H117" s="1">
+        <v>1</v>
+      </c>
+      <c r="I117" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B118" s="1">
+        <v>0</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" s="1">
+        <v>0</v>
+      </c>
+      <c r="H118" s="1">
+        <v>1</v>
+      </c>
+      <c r="I118" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B119" s="1">
+        <v>0</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0</v>
+      </c>
+      <c r="H119" s="1">
+        <v>1</v>
+      </c>
+      <c r="I119" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B120" s="1">
+        <v>0</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0</v>
+      </c>
+      <c r="H120" s="1">
+        <v>1</v>
+      </c>
+      <c r="I120" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B121" s="1">
+        <v>0</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0</v>
+      </c>
+      <c r="H121" s="1">
+        <v>1</v>
+      </c>
+      <c r="I121" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B122" s="1">
+        <v>0</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0</v>
+      </c>
+      <c r="H122" s="1">
+        <v>1</v>
+      </c>
+      <c r="I122" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B123" s="1">
+        <v>0</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0</v>
+      </c>
+      <c r="H123" s="1">
+        <v>1</v>
+      </c>
+      <c r="I123" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B124" s="1">
+        <v>0</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0</v>
+      </c>
+      <c r="H124" s="1">
+        <v>1</v>
+      </c>
+      <c r="I124" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B125" s="1">
+        <v>0</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G125" s="1">
+        <v>0</v>
+      </c>
+      <c r="H125" s="1">
+        <v>1</v>
+      </c>
+      <c r="I125" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B126" s="1">
+        <v>0</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G126" s="1">
+        <v>0</v>
+      </c>
+      <c r="H126" s="1">
+        <v>1</v>
+      </c>
+      <c r="I126" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B127" s="1">
+        <v>0</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0</v>
+      </c>
+      <c r="H127" s="1">
+        <v>1</v>
+      </c>
+      <c r="I127" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B128" s="1">
+        <v>0</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G128" s="1">
+        <v>0</v>
+      </c>
+      <c r="H128" s="1">
+        <v>1</v>
+      </c>
+      <c r="I128" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B129" s="1">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0</v>
+      </c>
+      <c r="H129" s="1">
+        <v>1</v>
+      </c>
+      <c r="I129" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B130" s="1">
+        <v>0</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0</v>
+      </c>
+      <c r="H130" s="1">
+        <v>1</v>
+      </c>
+      <c r="I130" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>

--- a/Assets/Resources/DataSet/DialogueDB.xlsx
+++ b/Assets/Resources/DataSet/DialogueDB.xlsx
@@ -1247,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I19" s="1">
         <v>-100</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I20" s="1">
         <v>-100</v>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I21" s="1">
         <v>-100</v>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I22" s="1">
         <v>-100</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I23" s="1">
         <v>-100</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I24" s="1">
         <v>-100</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I25" s="1">
         <v>-100</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I26" s="1">
         <v>-100</v>
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="I27" s="1">
         <v>-100</v>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="I28" s="1">
         <v>-100</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="I29" s="1">
         <v>-100</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I30" s="1">
         <v>-100</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="1">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="I31" s="1">
         <v>-100</v>
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I32" s="1">
         <v>-100</v>
@@ -2308,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="I33" s="1">
         <v>-100</v>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>1</v>
+        <v>-100</v>
       </c>
       <c r="I34" s="1">
         <v>-100</v>
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="1">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I36" s="1">
         <v>-100</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I37" s="1">
         <v>-100</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="1">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="I38" s="1">
         <v>-100</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="1">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="I39" s="1">
         <v>-100</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="I40" s="1">
         <v>-100</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I41" s="1">
         <v>-100</v>
@@ -2593,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I42" s="1">
         <v>-100</v>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="1">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="I43" s="1">
         <v>-100</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="I44" s="1">
         <v>-100</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="1">
-        <v>1</v>
+        <v>-100</v>
       </c>
       <c r="I45" s="1">
         <v>-100</v>

--- a/Assets/Resources/DataSet/DialogueDB.xlsx
+++ b/Assets/Resources/DataSet/DialogueDB.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBE797B-760C-468A-986E-76A8F63BDD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="252">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,31 +74,362 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>이 섬은 대체 뭐지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네가 뭔데 나한테 명령질이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하.. 그래 알겠어 하면 될 거 아니야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장 저희 정말로 괜찮은거 맞겠죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자네는 이럴거면 여기 뭐하러 온건가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼리오스, 너도 다이네랑 같이 주변 탐사를 해주게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알겠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 몰라 그걸 어떻게 알아..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이봐 다이네 나는 국왕에게 부탁받아 기사단을 창설한것인데, 나의 말을 거역하는것은 곧 국왕에 말을 거역하는 거일세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">네? 저의 귀여운 아이들을 홍보하러왔죠 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자네 그렇게 행동하다가 홍보는 커녕 고향으로 돌아가지도 못할걸세, 자네는 내 옆에 붙어있어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 네네~!(지가 뭔데 명령질이지?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐라고? 알겠다 지금 당장 출발하지 다들 훈련때처럼만 행동하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장!! 지금 칼리오스가 습격을 당했다고 보고가 들어왔습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앨리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다들 일단 진정하고, 먼저 이 섬에 대해서 조사를 해봐야 할 필요가 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티에리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이네, 너가 주변 조사를 좀 해야겠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라토나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼리오스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Character/00002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 섬은 대체 뭐지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네가 뭔데 나한테 명령질이야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하.. 그래 알겠어 하면 될 거 아니야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대장 저희 정말로 괜찮은거 맞겠죠?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자네는 이럴거면 여기 뭐하러 온건가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>칼리오스, 너도 다이네랑 같이 주변 탐사를 해주게</t>
+  </si>
+  <si>
+    <t>Character/00003</t>
+  </si>
+  <si>
+    <t>Character/00004</t>
+  </si>
+  <si>
+    <t>Character/00005</t>
+  </si>
+  <si>
+    <t>Character/00006</t>
+  </si>
+  <si>
+    <t>Character/00007</t>
+  </si>
+  <si>
+    <t>Character/00008</t>
+  </si>
+  <si>
+    <t>Character/00009</t>
+  </si>
+  <si>
+    <t>Character/00010</t>
+  </si>
+  <si>
+    <t>Character/00011</t>
+  </si>
+  <si>
+    <t>Character/00012</t>
+  </si>
+  <si>
+    <t>Character/00013</t>
+  </si>
+  <si>
+    <t>Character/00014</t>
+  </si>
+  <si>
+    <t>그렇다고 방심은 하면 안될세 아직 섬에 도입부도 안들어갔으니 더 강한 녀석들이 나올 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">상대가 얼마나 강하든 싸우고 죽인다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼리오스 자네는 어떻게 해서 이 기사단에 들어왔는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동생을 찾으러 왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 동생을 찾으러 왔구만 (지 동생을 왜 여기서 찾지?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앨리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼리오스가 동생을 찾을 수 있도록 기도드리죠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고맙다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬슬 깊숙히 들어왔는데 아까 싸운뒤로 아무 생명체도 안보입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장 여태까지 만났던 헬버드들은 약했습니다. 이 상태면 금방 집으로 갈 수 있겠는데요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠.. 뭔가 이상하군 이 섬에 뭔가 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그걸 어떻게 아시죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티에리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 감이 알려주고있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장 앞에 헬버드들이 있습니다. 그런데 이상한 개체가 섞여있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐 어떤 개체지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 헬버드들보다 덩치가 훨씬 큽니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00015</t>
+  </si>
+  <si>
+    <t>Character/00016</t>
+  </si>
+  <si>
+    <t>Character/00017</t>
+  </si>
+  <si>
+    <t>Character/00018</t>
+  </si>
+  <si>
+    <t>Character/00019</t>
+  </si>
+  <si>
+    <t>Character/00020</t>
+  </si>
+  <si>
+    <t>Character/00021</t>
+  </si>
+  <si>
+    <t>Character/00022</t>
+  </si>
+  <si>
+    <t>Character/00023</t>
+  </si>
+  <si>
+    <t>Character/00024</t>
+  </si>
+  <si>
+    <t>Character/00025</t>
+  </si>
+  <si>
+    <t>Character/00034</t>
+  </si>
+  <si>
+    <t>Character/00035</t>
+  </si>
+  <si>
+    <t>Character/00036</t>
+  </si>
+  <si>
+    <t>Character/00037</t>
+  </si>
+  <si>
+    <t>Character/00038</t>
+  </si>
+  <si>
+    <t>Character/00039</t>
+  </si>
+  <si>
+    <t>Character/00040</t>
+  </si>
+  <si>
+    <t>Character/00041</t>
+  </si>
+  <si>
+    <t>Character/00042</t>
+  </si>
+  <si>
+    <t>Character/00043</t>
+  </si>
+  <si>
+    <t>Character/00044</t>
+  </si>
+  <si>
+    <t>Character/00045</t>
+  </si>
+  <si>
+    <t>Character/00046</t>
+  </si>
+  <si>
+    <t>Character/00047</t>
+  </si>
+  <si>
+    <t>Character/00048</t>
+  </si>
+  <si>
+    <t>Character/00049</t>
+  </si>
+  <si>
+    <t>Character/00050</t>
+  </si>
+  <si>
+    <t>Character/00051</t>
+  </si>
+  <si>
+    <t>Character/00052</t>
+  </si>
+  <si>
+    <t>Character/00053</t>
+  </si>
+  <si>
+    <t>Character/00054</t>
+  </si>
+  <si>
+    <t>Character/00055</t>
+  </si>
+  <si>
+    <t>Character/00056</t>
+  </si>
+  <si>
+    <t>Character/00057</t>
+  </si>
+  <si>
+    <t>Character/00058</t>
+  </si>
+  <si>
+    <t>Character/00059</t>
+  </si>
+  <si>
+    <t>Character/00060</t>
+  </si>
+  <si>
+    <t>Character/00061</t>
+  </si>
+  <si>
+    <t>Character/00062</t>
+  </si>
+  <si>
+    <t>변이종이더라도 평소처럼만 하면 이길 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라토나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음 보는 광물로 무기 제작이 가능한가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇네요 살면서 이렇게 큰 동굴은 처음 본거 같아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장 슬슬 밤이 되어가고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선 거처부터 마련해야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼리오스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 주변을 수색하고 오겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거처를 만들거나 주변에 쉴 만한 곳을 찾아야한다. 칼리오스 너는 식량을 찾아봐라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -105,43 +437,188 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나도 몰라 그걸 어떻게 알아..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이봐 다이네 나는 국왕에게 부탁받아 기사단을 창설한것인데, 나의 말을 거역하는것은 곧 국왕에 말을 거역하는 거일세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">네? 저의 귀여운 아이들을 홍보하러왔죠 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자네 그렇게 행동하다가 홍보는 커녕 고향으로 돌아가지도 못할걸세, 자네는 내 옆에 붙어있어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아 네네~!(지가 뭔데 명령질이지?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐라고? 알겠다 지금 당장 출발하지 다들 훈련때처럼만 행동하게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대장!! 지금 칼리오스가 습격을 당했다고 보고가 들어왔습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앨리스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>대장, 주변에 헬버드들이 몰려오고 있다고 방금 보고가 들어왔습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤이 오기전에 빠르게 해치우고 거처와 식량을 확보해야한다. 엘리스 모든 기사단원에게 전달하도록.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼리오스, 다이네 지금 당장 돌아와, 주변에 헬버드들이 너무 많다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">칼리오스 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젠장 알겠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네, 알겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장, 저 앞에 동굴이 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥 동굴이라고 하기엔 너무 크군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 동굴은 새로운 광물들이 많은거 같구려 무기 만들기 좋겠어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이보게 대장, 새로운 광물들로 새로운 새끼를 만드는 것이 얼마나 좋은지 모르는구려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장, 앞에 새로운 헬버드 개체가 존재하는거 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">헬버드들은 정말 다양한 개체들이 존재하는군 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평소처럼 싸워서 죽인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>껄껄껄 자네 말이 맞지 대장, 평소처럼 우리 방식으로 처리합시다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장 여기 벽면에 뭐라고 적혀있는거 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭔가를 나타낸거 같군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건 상형문자군요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리스, 무슨 뜻인지 알겠나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니요 그림이 훼손되어서 자세히는 모르겠지만 헬버드로 추종되는 것이 5개체가 그려져 있는 거 같아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 대장 여기 그려져있는 헬버드들은 모습들이 너무 다른데요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런거같군 높은 격에 헬버드일 확률이 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강해보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장 일단 안쪽으로 더 들어 갈 겁니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안쪽으로 들어간다. 안쪽으로 들어가면 더 이 섬에 대해서 알 수 있는 정보들이 나올수도 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장 저 끝에 출구가 보입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 동굴 어딘가로 이어져 있었군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건 지형이 완전 바뀌었군요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분명 아까까진 숲이 였는데 여기는 사막인거 같군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 섬 전체가 이상한거같아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬이라고 하기엔 규모가 너무 큰거같군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대륙이라고 봐도 무방한거 같아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생각보다 일이 쉽게 해결되지 않겠군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장, 저희 집은 갈 수 있겠죠? 제 새끼들을 보고싶어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집을 가려면 이 대륙부터 조사를 계속 해야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼리오스, 걱정 말아요 동생은 꼭 찾으실수 있을거에요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기 어딘가에 동생이 존재하긴 한것인가..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00063</t>
+  </si>
+  <si>
+    <t>Character/00064</t>
+  </si>
+  <si>
+    <t>Character/00065</t>
+  </si>
+  <si>
+    <t>Character/00066</t>
+  </si>
+  <si>
+    <t>Character/00067</t>
+  </si>
+  <si>
+    <t>Character/00068</t>
+  </si>
+  <si>
+    <t>Character/00069</t>
+  </si>
+  <si>
+    <t>Character/00070</t>
+  </si>
+  <si>
+    <t>Character/00071</t>
+  </si>
+  <si>
+    <t>Character/00072</t>
+  </si>
+  <si>
+    <t>Character/00073</t>
   </si>
   <si>
     <t>다이네</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>다들 일단 진정하고, 먼저 이 섬에 대해서 조사를 해봐야 할 필요가 있다.</t>
+    <t>대장 앞에 헬버드들이 있습니다만 역시 모습이 또 다릅니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -149,7 +626,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>다이네, 너가 주변 조사를 좀 해야겠다.</t>
+    <t>지형에 따라 종류가 다른가보군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예 근데 전에 봤던 헬버드들보다 더 강한거 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼리오스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동생을 찾을수만 있다면 다 죽인다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -157,246 +646,241 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>칼리오스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/00002</t>
-  </si>
-  <si>
-    <t>Character/00003</t>
-  </si>
-  <si>
-    <t>Character/00004</t>
-  </si>
-  <si>
-    <t>Character/00005</t>
-  </si>
-  <si>
-    <t>Character/00006</t>
-  </si>
-  <si>
-    <t>Character/00007</t>
-  </si>
-  <si>
-    <t>Character/00008</t>
-  </si>
-  <si>
-    <t>Character/00009</t>
-  </si>
-  <si>
-    <t>Character/00010</t>
-  </si>
-  <si>
-    <t>Character/00011</t>
-  </si>
-  <si>
-    <t>Character/00012</t>
-  </si>
-  <si>
-    <t>Character/00013</t>
-  </si>
-  <si>
-    <t>Character/00014</t>
-  </si>
-  <si>
-    <t>그렇다고 방심은 하면 안될세 아직 섬에 도입부도 안들어갔으니 더 강한 녀석들이 나올 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">상대가 얼마나 강하든 싸우고 죽인다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>칼리오스 자네는 어떻게 해서 이 기사단에 들어왔는가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동생을 찾으러 왔다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아 동생을 찾으러 왔구만 (지 동생을 왜 여기서 찾지?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앨리스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>칼리오스가 동생을 찾을 수 있도록 기도드리죠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고맙다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬슬 깊숙히 들어왔는데 아까 싸운뒤로 아무 생명체도 안보입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대장 여태까지 만났던 헬버드들은 약했습니다. 이 상태면 금방 집으로 갈 수 있겠는데요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흠.. 뭔가 이상하군 이 섬에 뭔가 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다이네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그걸 어떻게 아시죠?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>티에리스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 감이 알려주고있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>엘리스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대장 앞에 헬버드들이 있습니다. 그런데 이상한 개체가 섞여있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐 어떤 개체지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 헬버드들보다 덩치가 훨씬 큽니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/00015</t>
-  </si>
-  <si>
-    <t>Character/00016</t>
-  </si>
-  <si>
-    <t>Character/00017</t>
-  </si>
-  <si>
-    <t>Character/00018</t>
-  </si>
-  <si>
-    <t>Character/00019</t>
-  </si>
-  <si>
-    <t>Character/00020</t>
-  </si>
-  <si>
-    <t>Character/00021</t>
-  </si>
-  <si>
-    <t>Character/00022</t>
-  </si>
-  <si>
-    <t>Character/00023</t>
-  </si>
-  <si>
-    <t>Character/00024</t>
-  </si>
-  <si>
-    <t>Character/00025</t>
-  </si>
-  <si>
-    <t>Character/00034</t>
-  </si>
-  <si>
-    <t>Character/00035</t>
-  </si>
-  <si>
-    <t>Character/00036</t>
-  </si>
-  <si>
-    <t>Character/00037</t>
-  </si>
-  <si>
-    <t>Character/00038</t>
-  </si>
-  <si>
-    <t>Character/00039</t>
-  </si>
-  <si>
-    <t>Character/00040</t>
-  </si>
-  <si>
-    <t>Character/00041</t>
-  </si>
-  <si>
-    <t>Character/00042</t>
-  </si>
-  <si>
-    <t>Character/00043</t>
-  </si>
-  <si>
-    <t>Character/00044</t>
-  </si>
-  <si>
-    <t>Character/00045</t>
-  </si>
-  <si>
-    <t>Character/00046</t>
-  </si>
-  <si>
-    <t>Character/00047</t>
-  </si>
-  <si>
-    <t>Character/00048</t>
-  </si>
-  <si>
-    <t>Character/00049</t>
-  </si>
-  <si>
-    <t>Character/00050</t>
-  </si>
-  <si>
-    <t>Character/00051</t>
-  </si>
-  <si>
-    <t>Character/00052</t>
-  </si>
-  <si>
-    <t>Character/00053</t>
-  </si>
-  <si>
-    <t>Character/00054</t>
-  </si>
-  <si>
-    <t>Character/00055</t>
-  </si>
-  <si>
-    <t>Character/00056</t>
-  </si>
-  <si>
-    <t>Character/00057</t>
-  </si>
-  <si>
-    <t>Character/00058</t>
-  </si>
-  <si>
-    <t>Character/00059</t>
-  </si>
-  <si>
-    <t>Character/00060</t>
-  </si>
-  <si>
-    <t>Character/00061</t>
-  </si>
-  <si>
-    <t>Character/00062</t>
-  </si>
-  <si>
-    <t>변이종이더라도 평소처럼만 하면 이길 수 있다.</t>
+    <t>앞으로 먼 여정이 될 거 같으니 너무 무리하면서 싸우지 마시죠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">엘리스 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사막으로 들어갈수록 헬버드들이 점점 강해지고 있는거 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇긴 하다만 우리도 점차 적응을 잘해가고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예 맞죠 대장 저조차도 지금은 어엿한 1인분은 하는 실력은 되었죠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 라토나 자네는 지금처럼만 잘해주게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">라토나 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걱정마십쇼 대장 제 새끼들만 있다면 저는 지지않습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00074</t>
+  </si>
+  <si>
+    <t>Character/00075</t>
+  </si>
+  <si>
+    <t>대장 이쪽으로 가는게 맞을까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 마법으로 길을 찾으면서 가고 있는데 이쪽길을 가르키고 있어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제로 개체수가 조금씩 많아지고 있군. 길을 틀린것은 아닌거 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00076</t>
+  </si>
+  <si>
+    <t>Character/00077</t>
+  </si>
+  <si>
+    <t>Character/00078</t>
+  </si>
+  <si>
+    <t>Character/00079</t>
+  </si>
+  <si>
+    <t>Character/00080</t>
+  </si>
+  <si>
+    <t>Character/00081</t>
+  </si>
+  <si>
+    <t>Character/00082</t>
+  </si>
+  <si>
+    <t>Character/00083</t>
+  </si>
+  <si>
+    <t>Character/00084</t>
+  </si>
+  <si>
+    <t>Character/00085</t>
+  </si>
+  <si>
+    <t>Character/00086</t>
+  </si>
+  <si>
+    <t>Character/00087</t>
+  </si>
+  <si>
+    <t>나름 많이 온거 같은데 끝이 안보이는군요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이럴줄 알았으면 병력을 더 데려올걸 그랬군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장,저희 집은 갈 수 있겠죠?(제발 집좀 보내줘)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라토나 집 얘기좀 그만하게, 자네가 이럴수록 집은 더 멀어지는 거야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네.. 알겠습니다(이럴거면 오지말걸 내 새끼들 잘있겠지..??)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하여튼 말은 많아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 나한테 시비거는 것인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시비는 아닌데 너무 말이 많다구요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자자, 진정들하게 아직 적들이 많이 남아있어. 다이네 자네가 참게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">네 알겠습니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00088</t>
+  </si>
+  <si>
+    <t>Character/00089</t>
+  </si>
+  <si>
+    <t>Character/00090</t>
+  </si>
+  <si>
+    <t>Character/00091</t>
+  </si>
+  <si>
+    <t>Character/00092</t>
+  </si>
+  <si>
+    <t>Character/00093</t>
+  </si>
+  <si>
+    <t>Character/00094</t>
+  </si>
+  <si>
+    <t>Character/00095</t>
+  </si>
+  <si>
+    <t>Character/00096</t>
+  </si>
+  <si>
+    <t>Character/00097</t>
+  </si>
+  <si>
+    <t>(#%@%^@)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00098</t>
+  </si>
+  <si>
+    <t>Character/00099</t>
+  </si>
+  <si>
+    <t>Character/00100</t>
+  </si>
+  <si>
+    <t>Character/00101</t>
+  </si>
+  <si>
+    <t>Character/00102</t>
+  </si>
+  <si>
+    <t>Character/00103</t>
+  </si>
+  <si>
+    <t>Character/00104</t>
+  </si>
+  <si>
+    <t>Character/00105</t>
+  </si>
+  <si>
+    <t>Character/00106</t>
+  </si>
+  <si>
+    <t>Character/00107</t>
+  </si>
+  <si>
+    <t>Character/00108</t>
+  </si>
+  <si>
+    <t>Character/00109</t>
+  </si>
+  <si>
+    <t>Character/00110</t>
+  </si>
+  <si>
+    <t>Character/00111</t>
+  </si>
+  <si>
+    <t>앞에 모래바람이 심하게 붑니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리스 저기 밖에 길이 없는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예 제 마법이 저쪽으로 길을 가르키고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쩔 수 없군. 다들 만만의 준비들 하세. 우리는 저길 들어간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조심해야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특히 라토나 자네는 더더욱 조심하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라토네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 대장 제가 알아서~하겠습니다.(저번부터 마음에 안드네)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -404,493 +888,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>라토나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>처음 보는 광물로 무기 제작이 가능한가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그렇네요 살면서 이렇게 큰 동굴은 처음 본거 같아요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대장 슬슬 밤이 되어가고 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우선 거처부터 마련해야한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>칼리오스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제가 주변을 수색하고 오겠습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거처를 만들거나 주변에 쉴 만한 곳을 찾아야한다. 칼리오스 너는 식량을 찾아봐라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알겠다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대장, 주변에 헬버드들이 몰려오고 있다고 방금 보고가 들어왔습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밤이 오기전에 빠르게 해치우고 거처와 식량을 확보해야한다. 엘리스 모든 기사단원에게 전달하도록.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>칼리오스, 다이네 지금 당장 돌아와, 주변에 헬버드들이 너무 많다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">칼리오스 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>젠장 알겠다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네, 알겠습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대장, 저 앞에 동굴이 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그냥 동굴이라고 하기엔 너무 크군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 동굴은 새로운 광물들이 많은거 같구려 무기 만들기 좋겠어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이보게 대장, 새로운 광물들로 새로운 새끼를 만드는 것이 얼마나 좋은지 모르는구려</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대장, 앞에 새로운 헬버드 개체가 존재하는거 같습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">헬버드들은 정말 다양한 개체들이 존재하는군 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평소처럼 싸워서 죽인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>껄껄껄 자네 말이 맞지 대장, 평소처럼 우리 방식으로 처리합시다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대장 여기 벽면에 뭐라고 적혀있는거 같습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭔가를 나타낸거 같군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이건 상형문자군요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘리스, 무슨 뜻인지 알겠나?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니요 그림이 훼손되어서 자세히는 모르겠지만 헬버드로 추종되는 것이 5개체가 그려져 있는 거 같아요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근데 대장 여기 그려져있는 헬버드들은 모습들이 너무 다른데요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그런거같군 높은 격에 헬버드일 확률이 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강해보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대장 일단 안쪽으로 더 들어 갈 겁니까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안쪽으로 들어간다. 안쪽으로 들어가면 더 이 섬에 대해서 알 수 있는 정보들이 나올수도 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대장 저 끝에 출구가 보입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 동굴 어딘가로 이어져 있었군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이건 지형이 완전 바뀌었군요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분명 아까까진 숲이 였는데 여기는 사막인거 같군.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 섬 전체가 이상한거같아요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>섬이라고 하기엔 규모가 너무 큰거같군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대륙이라고 봐도 무방한거 같아요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생각보다 일이 쉽게 해결되지 않겠군.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대장, 저희 집은 갈 수 있겠죠? 제 새끼들을 보고싶어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>집을 가려면 이 대륙부터 조사를 계속 해야한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>칼리오스, 걱정 말아요 동생은 꼭 찾으실수 있을거에요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여기 어딘가에 동생이 존재하긴 한것인가..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/00063</t>
-  </si>
-  <si>
-    <t>Character/00064</t>
-  </si>
-  <si>
-    <t>Character/00065</t>
-  </si>
-  <si>
-    <t>Character/00066</t>
-  </si>
-  <si>
-    <t>Character/00067</t>
-  </si>
-  <si>
-    <t>Character/00068</t>
-  </si>
-  <si>
-    <t>Character/00069</t>
-  </si>
-  <si>
-    <t>Character/00070</t>
-  </si>
-  <si>
-    <t>Character/00071</t>
-  </si>
-  <si>
-    <t>Character/00072</t>
-  </si>
-  <si>
-    <t>Character/00073</t>
-  </si>
-  <si>
-    <t>다이네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대장 앞에 헬버드들이 있습니다만 역시 모습이 또 다릅니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>티에리스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지형에 따라 종류가 다른가보군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예 근데 전에 봤던 헬버드들보다 더 강한거 같습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>칼리오스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동생을 찾을수만 있다면 다 죽인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라토나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘리스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앞으로 먼 여정이 될 거 같으니 너무 무리하면서 싸우지 마시죠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">엘리스 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사막으로 들어갈수록 헬버드들이 점점 강해지고 있는거 같습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그렇긴 하다만 우리도 점차 적응을 잘해가고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예 맞죠 대장 저조차도 지금은 어엿한 1인분은 하는 실력은 되었죠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래 라토나 자네는 지금처럼만 잘해주게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">라토나 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>걱정마십쇼 대장 제 새끼들만 있다면 저는 지지않습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/00074</t>
-  </si>
-  <si>
-    <t>Character/00075</t>
-  </si>
-  <si>
-    <t>대장 이쪽으로 가는게 맞을까요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제가 마법으로 길을 찾으면서 가고 있는데 이쪽길을 가르키고 있어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실제로 개체수가 조금씩 많아지고 있군. 길을 틀린것은 아닌거 같다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/00076</t>
-  </si>
-  <si>
-    <t>Character/00077</t>
-  </si>
-  <si>
-    <t>Character/00078</t>
-  </si>
-  <si>
-    <t>Character/00079</t>
-  </si>
-  <si>
-    <t>Character/00080</t>
-  </si>
-  <si>
-    <t>Character/00081</t>
-  </si>
-  <si>
-    <t>Character/00082</t>
-  </si>
-  <si>
-    <t>Character/00083</t>
-  </si>
-  <si>
-    <t>Character/00084</t>
-  </si>
-  <si>
-    <t>Character/00085</t>
-  </si>
-  <si>
-    <t>Character/00086</t>
-  </si>
-  <si>
-    <t>Character/00087</t>
-  </si>
-  <si>
-    <t>나름 많이 온거 같은데 끝이 안보이는군요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이럴줄 알았으면 병력을 더 데려올걸 그랬군.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대장,저희 집은 갈 수 있겠죠?(제발 집좀 보내줘)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라토나 집 얘기좀 그만하게, 자네가 이럴수록 집은 더 멀어지는 거야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네.. 알겠습니다(이럴거면 오지말걸 내 새끼들 잘있겠지..??)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하여튼 말은 많아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금 나한테 시비거는 것인가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시비는 아닌데 너무 말이 많다구요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자자, 진정들하게 아직 적들이 많이 남아있어. 다이네 자네가 참게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">네 알겠습니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/00088</t>
-  </si>
-  <si>
-    <t>Character/00089</t>
-  </si>
-  <si>
-    <t>Character/00090</t>
-  </si>
-  <si>
-    <t>Character/00091</t>
-  </si>
-  <si>
-    <t>Character/00092</t>
-  </si>
-  <si>
-    <t>Character/00093</t>
-  </si>
-  <si>
-    <t>Character/00094</t>
-  </si>
-  <si>
-    <t>Character/00095</t>
-  </si>
-  <si>
-    <t>Character/00096</t>
-  </si>
-  <si>
-    <t>Character/00097</t>
-  </si>
-  <si>
-    <t>(#%@%^@)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/00098</t>
-  </si>
-  <si>
-    <t>Character/00099</t>
-  </si>
-  <si>
-    <t>Character/00100</t>
-  </si>
-  <si>
-    <t>Character/00101</t>
-  </si>
-  <si>
-    <t>Character/00102</t>
-  </si>
-  <si>
-    <t>Character/00103</t>
-  </si>
-  <si>
-    <t>Character/00104</t>
-  </si>
-  <si>
-    <t>Character/00105</t>
-  </si>
-  <si>
-    <t>Character/00106</t>
-  </si>
-  <si>
-    <t>Character/00107</t>
-  </si>
-  <si>
-    <t>Character/00108</t>
-  </si>
-  <si>
-    <t>Character/00109</t>
-  </si>
-  <si>
-    <t>Character/00110</t>
-  </si>
-  <si>
-    <t>Character/00111</t>
-  </si>
-  <si>
-    <t>앞에 모래바람이 심하게 붑니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘리스 저기 밖에 길이 없는가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예 제 마법이 저쪽으로 길을 가르키고 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어쩔 수 없군. 다들 만만의 준비들 하세. 우리는 저길 들어간다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조심해야한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특히 라토나 자네는 더더욱 조심하게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라토네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네 대장 제가 알아서~하겠습니다.(저번부터 마음에 안드네)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여기 헬버드들은 아까보다 더 강합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -908,13 +905,33 @@
   </si>
   <si>
     <t>이 기세를 타서 빠르게 모래바람에서 벗어난다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/AleA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/DieA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/TieA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/RatA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/KalA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1244,11 +1261,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1303,13 +1320,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -1335,13 +1352,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>248</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -1367,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -1399,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>249</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
@@ -1431,13 +1448,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -1463,13 +1480,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>249</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -1495,13 +1512,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
@@ -1527,13 +1544,13 @@
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -1559,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -1591,13 +1608,13 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -1623,13 +1640,13 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -1655,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -1687,13 +1704,13 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -1719,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
@@ -1751,13 +1768,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -1783,13 +1800,13 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>13</v>
+        <v>249</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
@@ -1845,10 +1862,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
@@ -1877,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
@@ -1909,13 +1926,13 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>8</v>
@@ -1941,13 +1958,13 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>8</v>
@@ -1973,13 +1990,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>8</v>
@@ -2005,13 +2022,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>8</v>
@@ -2037,13 +2054,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>8</v>
@@ -2069,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>8</v>
@@ -2101,13 +2118,13 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>8</v>
@@ -2133,13 +2150,13 @@
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>8</v>
@@ -2165,13 +2182,13 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>8</v>
@@ -2197,13 +2214,13 @@
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>8</v>
@@ -2229,13 +2246,13 @@
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>8</v>
@@ -2261,13 +2278,13 @@
         <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>8</v>
@@ -2293,13 +2310,13 @@
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>8</v>
@@ -2325,13 +2342,13 @@
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>8</v>
@@ -2357,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>8</v>
@@ -2386,13 +2403,13 @@
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>8</v>
@@ -2418,13 +2435,13 @@
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>8</v>
@@ -2450,13 +2467,13 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>8</v>
@@ -2482,13 +2499,13 @@
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>8</v>
@@ -2514,13 +2531,13 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>8</v>
@@ -2546,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>8</v>
@@ -2578,13 +2595,13 @@
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>8</v>
@@ -2610,13 +2627,13 @@
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>8</v>
@@ -2642,13 +2659,13 @@
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>8</v>
@@ -2674,13 +2691,13 @@
         <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>8</v>
@@ -2706,11 +2723,11 @@
         <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>8</v>
@@ -2736,13 +2753,13 @@
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>8</v>
@@ -2768,13 +2785,13 @@
         <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -2800,13 +2817,13 @@
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>8</v>
@@ -2832,13 +2849,13 @@
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>8</v>
@@ -2864,13 +2881,13 @@
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>8</v>
@@ -2896,13 +2913,13 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>8</v>
@@ -2928,13 +2945,13 @@
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>8</v>
@@ -2960,13 +2977,13 @@
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>8</v>
@@ -2992,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>8</v>
@@ -3024,13 +3041,13 @@
         <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>8</v>
@@ -3056,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>8</v>
@@ -3088,11 +3105,11 @@
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>8</v>
@@ -3118,13 +3135,13 @@
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>8</v>
@@ -3150,13 +3167,13 @@
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>8</v>
@@ -3182,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>8</v>
@@ -3214,13 +3231,13 @@
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>8</v>
@@ -3246,13 +3263,13 @@
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>8</v>
@@ -3278,13 +3295,13 @@
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>8</v>
@@ -3310,13 +3327,13 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>8</v>
@@ -3342,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>8</v>
@@ -3374,13 +3391,13 @@
         <v>0</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>8</v>
@@ -3406,13 +3423,13 @@
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>8</v>
@@ -3442,7 +3459,7 @@
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>8</v>
@@ -3468,13 +3485,13 @@
         <v>0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>8</v>
@@ -3500,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>8</v>
@@ -3532,13 +3549,13 @@
         <v>0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>8</v>
@@ -3564,13 +3581,13 @@
         <v>0</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>8</v>
@@ -3596,13 +3613,13 @@
         <v>0</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>8</v>
@@ -3628,13 +3645,13 @@
         <v>0</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>8</v>
@@ -3660,13 +3677,13 @@
         <v>0</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>8</v>
@@ -3692,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>8</v>
@@ -3724,13 +3741,13 @@
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>8</v>
@@ -3756,13 +3773,13 @@
         <v>0</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>8</v>
@@ -3788,13 +3805,13 @@
         <v>0</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>8</v>
@@ -3820,13 +3837,13 @@
         <v>0</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>8</v>
@@ -3852,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="E82" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>8</v>
@@ -3884,13 +3901,13 @@
         <v>0</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="E83" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>8</v>
@@ -3916,13 +3933,13 @@
         <v>0</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>8</v>
@@ -3948,13 +3965,13 @@
         <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="E85" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>8</v>
@@ -3980,13 +3997,13 @@
         <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="E86" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>8</v>
@@ -4015,7 +4032,7 @@
         <v>7</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>8</v>
@@ -4041,13 +4058,13 @@
         <v>0</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="E88" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>8</v>
@@ -4073,13 +4090,13 @@
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>8</v>
@@ -4105,13 +4122,13 @@
         <v>0</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>8</v>
@@ -4137,13 +4154,13 @@
         <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>8</v>
@@ -4169,13 +4186,13 @@
         <v>0</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="E92" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>8</v>
@@ -4201,13 +4218,13 @@
         <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>8</v>
@@ -4233,13 +4250,13 @@
         <v>0</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>8</v>
@@ -4265,13 +4282,13 @@
         <v>0</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D95" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>8</v>
@@ -4300,7 +4317,7 @@
         <v>7</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>8</v>
@@ -4326,13 +4343,13 @@
         <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>8</v>
@@ -4358,13 +4375,13 @@
         <v>0</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>8</v>
@@ -4390,13 +4407,13 @@
         <v>0</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>8</v>
@@ -4422,13 +4439,13 @@
         <v>0</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>8</v>
@@ -4454,13 +4471,13 @@
         <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>8</v>
@@ -4486,13 +4503,13 @@
         <v>0</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>8</v>
@@ -4518,13 +4535,13 @@
         <v>0</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>8</v>
@@ -4550,13 +4567,13 @@
         <v>0</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>8</v>
@@ -4582,13 +4599,13 @@
         <v>0</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>8</v>
@@ -4614,13 +4631,13 @@
         <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>8</v>
@@ -4646,13 +4663,13 @@
         <v>0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>8</v>
@@ -4681,7 +4698,7 @@
         <v>7</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>8</v>
@@ -4707,13 +4724,13 @@
         <v>0</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>8</v>
@@ -4739,13 +4756,13 @@
         <v>0</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>8</v>
@@ -4771,13 +4788,13 @@
         <v>0</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>8</v>
@@ -4803,13 +4820,13 @@
         <v>0</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>8</v>
@@ -4835,13 +4852,13 @@
         <v>0</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>8</v>
@@ -4867,13 +4884,13 @@
         <v>0</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>8</v>
@@ -4899,13 +4916,13 @@
         <v>0</v>
       </c>
       <c r="C115" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="E115" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>8</v>
@@ -4931,10 +4948,10 @@
         <v>0</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>8</v>
@@ -4960,13 +4977,13 @@
         <v>0</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>8</v>
@@ -4992,13 +5009,13 @@
         <v>0</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>8</v>
@@ -5024,13 +5041,13 @@
         <v>0</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>8</v>
@@ -5056,13 +5073,13 @@
         <v>0</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>8</v>
@@ -5088,13 +5105,13 @@
         <v>0</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>8</v>
@@ -5123,7 +5140,7 @@
         <v>7</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>8</v>
@@ -5149,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>8</v>
@@ -5175,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>8</v>
@@ -5201,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>8</v>
@@ -5227,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>8</v>
@@ -5253,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>8</v>
@@ -5279,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>8</v>
@@ -5305,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>8</v>
@@ -5331,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>8</v>
